--- a/data/turm/MEC-2A/MEC-2A_(3)bimestre.xlsx
+++ b/data/turm/MEC-2A/MEC-2A_(3)bimestre.xlsx
@@ -734,22 +734,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FLuxo</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aline S. M.-Metalografia_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat_(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -766,22 +766,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FLuxo</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aline S. M.-Metalografia_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat_(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -793,27 +793,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Emerson-Elet. Digit. Básica_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aline S. M.-Metalografia_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nilton-Mec. Tec. Res. Mat_(2)semestre</t>
+          <t>Ludoff-Maq. Term. FLuxo</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Emerson-Elet. Digit. Básica_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aline S. M.-Metalografia_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>Ludoff-Maq. Term. FLuxo</t>
         </is>
       </c>
     </row>
@@ -894,22 +894,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0_(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2A/MEC-2A_(3)bimestre.xlsx
+++ b/data/turm/MEC-2A/MEC-2A_(3)bimestre.xlsx
@@ -729,27 +729,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Ludoff-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Ludoff-Maq. Term. FLuxo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ludoff-Maq. Term. FLuxo</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>Vinicius-Ajustagem_(3)bimestre</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Ludoff-Maq. Term. FLuxo</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-2A/MEC-2A_(3)bimestre.xlsx
+++ b/data/turm/MEC-2A/MEC-2A_(3)bimestre.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>0_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Ludoff-Maq. Term. FLuxo</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -761,19 +761,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>0_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Ludoff-Maq. Term. FLuxo</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>-</t>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(3)bimestre</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
+          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vinicius-Ajustagem_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(3)bimestre</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(3)bimestre</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
@@ -921,17 +921,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Carlos-Tornearia_(3)bimestre</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vinicius-Des. Maq. Cad._(2)semestre</t>
+          <t>Claudinei-Des. Maq. Cad._(2)semestre</t>
         </is>
       </c>
     </row>
